--- a/P0001/09_FICHAS/N3-FD-General.xlsx
+++ b/P0001/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0001\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F433B91-AF29-4FFF-A28E-23FB4F730BC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -78,67 +89,37 @@
     <t>P0001</t>
   </si>
   <si>
-    <t>PR0009</t>
-  </si>
-  <si>
-    <t>R0001</t>
-  </si>
-  <si>
-    <t>Plan fortalecimiento</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0001_New/02_PRODUCTOS/8. PRODUCTOS/COMP 1. AREAS PRIORI/3. DRMI RAMSAR Cien Zapatosa/Plan fortalecimiento</t>
-  </si>
-  <si>
-    <t>Convenio 022 del 2016 FUNDACIÓN NATURA</t>
-  </si>
-  <si>
-    <t>Carpeta que contiene cuatro (4) cartillas informativas sobre las iniciativas y proyectos implementados el marco del Programa Pequeñas Donaciones del GEF-PNUD y el proyecto GEF Magdalena-Cauca Vive</t>
-  </si>
-  <si>
-    <t>Cartilla</t>
-  </si>
-  <si>
-    <t>PDF</t>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>Ayapel</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0001/02_PRODUCTOS/8. PRODUCTOS/COMP 2. SALUD ECO/6. RíoSanJorge-Ayapel/Anexos/CARTOGRAFÍA - COMPLEJO CENAGOSO CIÉNAGA  AYAPEL/Ayapel</t>
+  </si>
+  <si>
+    <t>Programa de Modelación Ecohidrológica (PMEH)</t>
+  </si>
+  <si>
+    <t>Carpeta que contiene los mapas de frecuencia observada de inundaciones mensual – multianual, frecuencia observada de macrófitas mensual – multianual, Modelo de Elevación Digital (DEM) y localización de la ciénaga de Ayapel. Dentro de la carpeta se encuentran copias de todos los mapas en formato PDF y PNG, y copias por tamaño de la imagen (A0 y Carta)</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>pdf y png</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Documentos útiles para la divulgación del proyecto, presentan una calidad de información adecuada, con datos relevantes sobre la conservación de ecosistemas acuáticos y terrestres en la cuenca Magdalena-Cauca.</t>
-  </si>
-  <si>
-    <t>Conservación, Humedales, Ecosistemas acuáticos, Magdalena-Cauca, Ciénaga de Ayapel, Biodiversidad, Iniciativas comunitarias, Restauración ecológica, Gestión ambiental, Participación comunitaria, Áreas protegidas, Acuerdos de manejo, Servicios ecosistémicos, Sostenibilidad, Monitoreo, Indicadores bióticos, Proyectos de conservación, Educación ambiental, Desarrollo sostenible, Cuenca baja, Especies en peligro, Recursos hídricos, Agricultura sostenible, Ecoturismo, gestión de recursos naturales, Metodologías participativas, Impacto ambiental</t>
-  </si>
-  <si>
-    <t>PR0005</t>
-  </si>
-  <si>
-    <t>R0002</t>
-  </si>
-  <si>
-    <t>Ayapel</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0001_New/02_PRODUCTOS/8. PRODUCTOS/COMP 2. SALUD ECO/6. RíoSanJorge-Ayapel/Anexos/CARTOGRAFÍA - COMPLEJO CENAGOSO CIÉNAGA  AYAPEL/Ayapel</t>
-  </si>
-  <si>
-    <t>Programa de Modelación Ecohidrológica (PMEH)</t>
-  </si>
-  <si>
-    <t>Carpeta que contiene los mapas de frecuencia observada de inundaciones mensual – multianual, frecuencia observada de macrófitas mensual – multianual, Modelo de Elevación Digital (DEM) y localización de la ciénaga de Ayapel. Dentro de la carpeta se encuentran copias de todos los mapas en formato PDF y PNG, y copias por tamaño de la imagen (A0 y Carta)</t>
-  </si>
-  <si>
-    <t>Mapa</t>
-  </si>
-  <si>
-    <t>PDF y PNG</t>
-  </si>
-  <si>
     <t>Información relevante para la caracterización de la Ciénaga de Ayapel.</t>
   </si>
   <si>
-    <t>Ciénaga de Ayapel, Mapa, Cartografía, Inundaciones, Macrófitas, Elevación, Modelo de Elevación Digital, Localización, Cuenca, Macrocuenca, Estaciones hidrometeorológicas</t>
+    <t>Ciénaga de Ayapel, mapa, cartografía, inundaciones, macrófitas, elevación, modelo de elevación digital, localización, cuenca, macrocuenca, estaciones hidrometeorológicas</t>
   </si>
   <si>
     <t>R0003</t>
@@ -147,7 +128,7 @@
     <t>Simulaciones Ayapel</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0001_New/02_PRODUCTOS/8. PRODUCTOS/COMP 2. SALUD ECO/6. RíoSanJorge-Ayapel/Anexos/CARTOGRAFÍA - COMPLEJO CENAGOSO CIÉNAGA  AYAPEL/Simulaciones Ayapel.zip</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0001/02_PRODUCTOS/8. PRODUCTOS/COMP 2. SALUD ECO/6. RíoSanJorge-Ayapel/Anexos/CARTOGRAFÍA - COMPLEJO CENAGOSO CIÉNAGA  AYAPEL/Simulaciones Ayapel.zip</t>
   </si>
   <si>
     <t>Carpeta que contiene las representaciones graficas (mapas) resultado de las simulaciones para la ciénaga de Ayapel. En la carpeta se encuentran los escenarios con datos máximos y mínimos de profundidad del agua, residencia, sedimentos, temperatura y velocidad, junto con los datos de línea base</t>
@@ -156,14 +137,14 @@
     <t>Anexos de los informes de contrato de avance del modelo. Información relevante para la caracterización de la Ciénaga de Ayapel.</t>
   </si>
   <si>
-    <t>Ciénaga de Ayapel, Mapa, Cartografía, Máximos, Mínimos, Profundidad del agua, Residencia, Sedimentos, Temperatura, Velocidad, Línea base, Modelación, Modelo ecohidrológico</t>
+    <t>Ciénaga de Ayapel, mapa, cartografía, máximos, mínimos, profundidad del agua, residencia, sedimentos, temperatura, velocidad, línea base, modelación, modelo ecohidrológico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,9 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,15 +474,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="41" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="47.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -561,7 +548,7 @@
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="1">
@@ -598,104 +585,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="47.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>2021</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/P0001/09_FICHAS/N3-FD-General.xlsx
+++ b/P0001/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0001\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F433B91-AF29-4FFF-A28E-23FB4F730BC9}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D887F7-B70B-4133-A0F6-930C07374691}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +152,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,18 +198,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,12 +521,25 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection sqref="A1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -498,16 +555,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -528,10 +585,10 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -545,19 +602,19 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>2021</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -578,10 +635,10 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -598,16 +655,16 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>2021</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -628,10 +685,10 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/P0001/09_FICHAS/N3-FD-General.xlsx
+++ b/P0001/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0001\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0001/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D887F7-B70B-4133-A0F6-930C07374691}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF7ADF1-2B18-454B-9C01-ED45CAD33646}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Mapa</t>
   </si>
   <si>
-    <t>pdf y png</t>
+    <t>pdf</t>
   </si>
   <si>
     <t>NA</t>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,25 +218,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -521,28 +510,30 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,16 +546,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -585,14 +576,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="47.25" customHeight="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -605,16 +596,16 @@
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>2021</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -635,14 +626,14 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="47.25" customHeight="1">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -655,16 +646,16 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>2021</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -685,10 +676,10 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
